--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>
@@ -33,6 +33,51 @@
   </si>
   <si>
     <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_W001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_D003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_W002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_D001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B001</t>
   </si>
 </sst>
 </file>
@@ -77,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -106,6 +151,167 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_reward_box_item.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="22">
   <si>
     <t xml:space="preserve">reward_box_item_id</t>
   </si>
